--- a/result/ТРБТ.xlsx
+++ b/result/ТРБТ.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>509</v>
+        <v>876</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>681</v>
+        <v>529</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>975</v>
+        <v>603</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>700</v>
+        <v>779</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>893</v>
+        <v>532</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>745</v>
+        <v>669</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>973</v>
+        <v>794</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>882</v>
+        <v>533</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>964</v>
+        <v>984</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>508</v>
+        <v>712</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>626</v>
+        <v>936</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>518</v>
+        <v>806</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>582</v>
+        <v>811</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>617</v>
+        <v>989</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>693</v>
+        <v>520</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>775</v>
+        <v>984</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>902</v>
+        <v>769</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>846</v>
+        <v>574</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>874</v>
+        <v>986</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>840</v>
+        <v>695</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>776</v>
+        <v>588</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>646</v>
+        <v>956</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>723</v>
+        <v>564</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>691</v>
+        <v>758</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>678</v>
+        <v>554</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>967</v>
+        <v>735</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>554</v>
+        <v>782</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>546</v>
+        <v>824</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>785</v>
+        <v>840</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>906</v>
+        <v>596</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>729</v>
+        <v>888</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>862</v>
+        <v>672</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>740</v>
+        <v>573</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>573</v>
+        <v>981</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>716</v>
+        <v>535</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>753</v>
+        <v>949</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>729</v>
+        <v>920</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>872</v>
+        <v>722</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>975</v>
+        <v>593</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>808</v>
+        <v>904</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>868</v>
+        <v>764</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>698</v>
+        <v>898</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>950</v>
+        <v>813</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>631</v>
+        <v>687</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>608</v>
+        <v>816</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>576</v>
+        <v>528</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>548</v>
+        <v>966</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>988</v>
+        <v>799</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>927</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>539</v>
+        <v>886</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>904</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>969</v>
+        <v>869</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>928</v>
+        <v>0</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>577</v>
+        <v>862</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>631</v>
+        <v>531</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>967</v>
+        <v>772</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>981</v>
+        <v>738</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>513</v>
+        <v>773</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>821</v>
+        <v>535</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>925</v>
+        <v>727</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>902</v>
+        <v>683</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>528</v>
+        <v>988</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>927</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>904</v>
+        <v>766</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>917</v>
+        <v>735</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>848</v>
+        <v>784</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>817</v>
+        <v>934</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>967</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>627</v>
+        <v>530</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>587</v>
+        <v>865</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>521</v>
+        <v>781</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>97.59999999999999</v>
+        <v>104.54</v>
       </c>
     </row>
     <row r="171">
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>97.59999999999999</v>
+        <v>104.54</v>
       </c>
     </row>
     <row r="173">
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>513</v>
+        <v>729</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>23.82</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="174">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>105.47</v>
+        <v>112.97</v>
       </c>
     </row>
     <row r="175">
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>23.82</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="176">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>697</v>
+        <v>670</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>632</v>
+        <v>723</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>736</v>
+        <v>964</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>996</v>
+        <v>851</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>624</v>
+        <v>546</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>529</v>
+        <v>677</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>677</v>
+        <v>717</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>772</v>
+        <v>967</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>541</v>
+        <v>704</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>571</v>
+        <v>868</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>720</v>
+        <v>641</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>646</v>
+        <v>972</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>613</v>
+        <v>812</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>804</v>
+        <v>677</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>691</v>
+        <v>788</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>908</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>763</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>534</v>
+        <v>851</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>127.62</v>
+        <v>133.09</v>
       </c>
     </row>
     <row r="232">
@@ -6908,7 +6908,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>965</v>
+        <v>928</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>123.72</v>
+        <v>133.24</v>
       </c>
     </row>
     <row r="233">
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>127.25</v>
+        <v>138.89</v>
       </c>
     </row>
     <row r="234">
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>25.78</v>
+        <v>28.37</v>
       </c>
     </row>
     <row r="235">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>59.33</v>
+        <v>64.79000000000001</v>
       </c>
     </row>
     <row r="236">
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>860</v>
+        <v>617</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>119.35</v>
+        <v>126.85</v>
       </c>
     </row>
     <row r="237">
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>614</v>
+        <v>845</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>703</v>
+        <v>535</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>676</v>
+        <v>905</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>784</v>
+        <v>888</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>859</v>
+        <v>751</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>

--- a/result/ТРБТ.xlsx
+++ b/result/ТРБТ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="440">
   <si>
     <t>Название склада</t>
   </si>
@@ -532,6 +532,15 @@
     <t>ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-1</t>
   </si>
   <si>
+    <t>ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-2</t>
+  </si>
+  <si>
+    <t>ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-3</t>
+  </si>
+  <si>
+    <t>ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-5</t>
+  </si>
+  <si>
     <t>ТРБТ ГРЫЗ ORIGINAL NATURE CUNI 0.75KG-1</t>
   </si>
   <si>
@@ -733,7 +742,7 @@
     <t>ТРБТ ПТИЦ PRESTIGE STICKS SHELL 0.06KG-1</t>
   </si>
   <si>
-    <t>ТРБТ ПТИЦ PRESTIGE STICKS VEG+DAN 0.06KG-1</t>
+    <t>ТРБТ ПТИЦ PRESTIGE STICKS VEG DAN 0.06KG-1</t>
   </si>
   <si>
     <t>ТРБТ СОБ HL ВЗР ВСЕ Говядина 15кг 1шт</t>
@@ -1682,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D2">
-        <v>707</v>
+        <v>592</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F2">
         <v>41.7</v>
@@ -1736,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D3">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F3">
         <v>216.02</v>
@@ -1756,13 +1765,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D4">
-        <v>768</v>
+        <v>940</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F4">
         <v>42.38</v>
@@ -1776,13 +1785,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D5">
-        <v>577</v>
+        <v>974</v>
       </c>
       <c r="E5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F5">
         <v>216.14</v>
@@ -1796,13 +1805,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D6">
-        <v>605</v>
+        <v>509</v>
       </c>
       <c r="E6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F6">
         <v>41.71</v>
@@ -1816,13 +1825,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D7">
-        <v>677</v>
+        <v>981</v>
       </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F7">
         <v>216.04</v>
@@ -1836,13 +1845,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D8">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F8">
         <v>41.71</v>
@@ -1856,13 +1865,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D9">
-        <v>890</v>
+        <v>627</v>
       </c>
       <c r="E9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F9">
         <v>229.81</v>
@@ -1876,13 +1885,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F10">
         <v>214.2</v>
@@ -1896,13 +1905,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D11">
-        <v>943</v>
+        <v>780</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F11">
         <v>221.11</v>
@@ -1916,13 +1925,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D12">
-        <v>937</v>
+        <v>522</v>
       </c>
       <c r="E12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F12">
         <v>14.51</v>
@@ -1936,13 +1945,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D13">
-        <v>876</v>
+        <v>672</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F13">
         <v>43.4</v>
@@ -1956,13 +1965,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D14">
-        <v>895</v>
+        <v>681</v>
       </c>
       <c r="E14" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F14">
         <v>227.84</v>
@@ -1976,13 +1985,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D15">
-        <v>836</v>
+        <v>702</v>
       </c>
       <c r="E15" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F15">
         <v>20.69</v>
@@ -1996,13 +2005,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D16">
-        <v>893</v>
+        <v>834</v>
       </c>
       <c r="E16" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F16">
         <v>37.308</v>
@@ -2016,13 +2025,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D17">
-        <v>959</v>
+        <v>718</v>
       </c>
       <c r="E17" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F17">
         <v>53.328</v>
@@ -2036,13 +2045,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D18">
-        <v>908</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F18">
         <v>20.69</v>
@@ -2056,13 +2065,13 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D19">
-        <v>765</v>
+        <v>513</v>
       </c>
       <c r="E19" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F19">
         <v>40.248</v>
@@ -2076,13 +2085,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D20">
-        <v>933</v>
+        <v>653</v>
       </c>
       <c r="E20" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F20">
         <v>56.58</v>
@@ -2096,13 +2105,13 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D21">
-        <v>703</v>
+        <v>929</v>
       </c>
       <c r="E21" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F21">
         <v>91.548</v>
@@ -2116,13 +2125,13 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D22">
-        <v>731</v>
+        <v>614</v>
       </c>
       <c r="E22" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F22">
         <v>20.69</v>
@@ -2136,13 +2145,13 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D23">
-        <v>635</v>
+        <v>791</v>
       </c>
       <c r="E23" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F23">
         <v>38.82</v>
@@ -2156,13 +2165,13 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F24">
         <v>20.69</v>
@@ -2176,13 +2185,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D25">
-        <v>779</v>
+        <v>744</v>
       </c>
       <c r="E25" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F25">
         <v>39.492</v>
@@ -2196,13 +2205,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D26">
-        <v>857</v>
+        <v>721</v>
       </c>
       <c r="E26" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F26">
         <v>61.764</v>
@@ -2216,13 +2225,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D27">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F27">
         <v>20.69</v>
@@ -2236,13 +2245,13 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D28">
-        <v>633</v>
+        <v>695</v>
       </c>
       <c r="E28" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F28">
         <v>50.62</v>
@@ -2256,13 +2265,13 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D29">
-        <v>909</v>
+        <v>796</v>
       </c>
       <c r="E29" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F29">
         <v>78.036</v>
@@ -2276,13 +2285,13 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D30">
-        <v>976</v>
+        <v>767</v>
       </c>
       <c r="E30" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F30">
         <v>22.97</v>
@@ -2296,13 +2305,13 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D31">
-        <v>854</v>
+        <v>700</v>
       </c>
       <c r="E31" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F31">
         <v>188.56</v>
@@ -2316,13 +2325,13 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D32">
-        <v>509</v>
+        <v>913</v>
       </c>
       <c r="E32" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F32">
         <v>50.1</v>
@@ -2336,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D33">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="E33" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F33">
         <v>25.03</v>
@@ -2356,13 +2365,13 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D34">
-        <v>669</v>
+        <v>585</v>
       </c>
       <c r="E34" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F34">
         <v>188.58</v>
@@ -2376,13 +2385,13 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D35">
-        <v>828</v>
+        <v>635</v>
       </c>
       <c r="E35" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F35">
         <v>48.04</v>
@@ -2396,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F36">
         <v>153.24</v>
@@ -2416,13 +2425,13 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D37">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F37">
         <v>246.35</v>
@@ -2436,13 +2445,13 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F38">
         <v>65.62</v>
@@ -2456,13 +2465,13 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D39">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="E39" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F39">
         <v>211.76</v>
@@ -2476,13 +2485,13 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D40">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F40">
         <v>273.86</v>
@@ -2496,13 +2505,13 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D41">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F41">
         <v>73.09999999999999</v>
@@ -2516,13 +2525,13 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F42">
         <v>197.32</v>
@@ -2536,13 +2545,13 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D43">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F43">
         <v>64.48999999999999</v>
@@ -2556,13 +2565,13 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D44">
-        <v>804</v>
+        <v>626</v>
       </c>
       <c r="E44" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F44">
         <v>157.46</v>
@@ -2576,13 +2585,13 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D45">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F45">
         <v>239.52</v>
@@ -2596,13 +2605,13 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D46">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F46">
         <v>55.26</v>
@@ -2616,13 +2625,13 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D47">
-        <v>826</v>
+        <v>527</v>
       </c>
       <c r="E47" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F47">
         <v>185.68</v>
@@ -2636,13 +2645,13 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D48">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F48">
         <v>260.14</v>
@@ -2656,13 +2665,13 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D49">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F49">
         <v>62.82</v>
@@ -2676,13 +2685,13 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D50">
-        <v>645</v>
+        <v>990</v>
       </c>
       <c r="E50" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F50">
         <v>175.31</v>
@@ -2696,13 +2705,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D51">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F51">
         <v>61.48</v>
@@ -2716,13 +2725,13 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D52">
-        <v>637</v>
+        <v>919</v>
       </c>
       <c r="E52" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F52">
         <v>27.08</v>
@@ -2736,13 +2745,13 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D53">
-        <v>575</v>
+        <v>861</v>
       </c>
       <c r="E53" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F53">
         <v>54.22</v>
@@ -2756,13 +2765,13 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D54">
-        <v>782</v>
+        <v>850</v>
       </c>
       <c r="E54" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F54">
         <v>161.72</v>
@@ -2776,13 +2785,13 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D55">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F55">
         <v>68.42</v>
@@ -2796,13 +2805,13 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D56">
-        <v>844</v>
+        <v>969</v>
       </c>
       <c r="E56" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F56">
         <v>27.78</v>
@@ -2816,13 +2825,13 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D57">
-        <v>977</v>
+        <v>683</v>
       </c>
       <c r="E57" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F57">
         <v>195.56</v>
@@ -2836,13 +2845,13 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D58">
-        <v>959</v>
+        <v>657</v>
       </c>
       <c r="E58" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F58">
         <v>55.61</v>
@@ -2856,13 +2865,13 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D59">
-        <v>657</v>
+        <v>577</v>
       </c>
       <c r="E59" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F59">
         <v>2.98</v>
@@ -2876,13 +2885,13 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D60">
-        <v>723</v>
+        <v>956</v>
       </c>
       <c r="E60" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F60">
         <v>2.98</v>
@@ -2896,13 +2905,13 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D61">
-        <v>820</v>
+        <v>911</v>
       </c>
       <c r="E61" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -2916,13 +2925,13 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D62">
-        <v>663</v>
+        <v>586</v>
       </c>
       <c r="E62" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F62">
         <v>3.14</v>
@@ -2936,13 +2945,13 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D63">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="E63" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F63">
         <v>3.14</v>
@@ -2956,13 +2965,13 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D64">
         <v>986</v>
       </c>
       <c r="E64" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F64">
         <v>81.42</v>
@@ -2976,13 +2985,13 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F65">
         <v>11.83</v>
@@ -2996,13 +3005,13 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F66">
         <v>11.83</v>
@@ -3016,13 +3025,13 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F67">
         <v>11.83</v>
@@ -3036,13 +3045,13 @@
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F68">
         <v>11.83</v>
@@ -3056,13 +3065,13 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F69">
         <v>11.83</v>
@@ -3076,13 +3085,13 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D70">
-        <v>709</v>
+        <v>523</v>
       </c>
       <c r="E70" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F70">
         <v>40.27</v>
@@ -3096,13 +3105,13 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D71">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="E71" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F71">
         <v>70.34</v>
@@ -3116,13 +3125,13 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D72">
-        <v>952</v>
+        <v>794</v>
       </c>
       <c r="E72" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F72">
         <v>147.02</v>
@@ -3136,13 +3145,13 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="E73" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F73">
         <v>13.37</v>
@@ -3156,13 +3165,13 @@
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="E74" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F74">
         <v>13.37</v>
@@ -3176,13 +3185,13 @@
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="E75" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F75">
         <v>13.37</v>
@@ -3196,13 +3205,13 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E76" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F76">
         <v>13.37</v>
@@ -3216,13 +3225,13 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="E77" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F77">
         <v>13.37</v>
@@ -3236,13 +3245,13 @@
         <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D78">
-        <v>962</v>
+        <v>850</v>
       </c>
       <c r="E78" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F78">
         <v>41.35</v>
@@ -3256,13 +3265,13 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D79">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="E79" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F79">
         <v>157.72</v>
@@ -3276,13 +3285,13 @@
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="E80" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F80">
         <v>11.86</v>
@@ -3296,13 +3305,13 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="E81" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F81">
         <v>11.86</v>
@@ -3316,13 +3325,13 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="E82" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F82">
         <v>11.86</v>
@@ -3336,13 +3345,13 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="E83" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F83">
         <v>11.86</v>
@@ -3356,13 +3365,13 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="E84" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F84">
         <v>11.86</v>
@@ -3376,13 +3385,13 @@
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D85">
-        <v>639</v>
+        <v>976</v>
       </c>
       <c r="E85" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F85">
         <v>41.04</v>
@@ -3396,13 +3405,13 @@
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="E86" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F86">
         <v>70.34</v>
@@ -3416,13 +3425,13 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D87">
-        <v>976</v>
+        <v>808</v>
       </c>
       <c r="E87" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F87">
         <v>147.02</v>
@@ -3436,13 +3445,13 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D88">
-        <v>775</v>
+        <v>946</v>
       </c>
       <c r="E88" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F88">
         <v>13.37</v>
@@ -3456,13 +3465,13 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D89">
-        <v>607</v>
+        <v>730</v>
       </c>
       <c r="E89" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F89">
         <v>13.37</v>
@@ -3476,13 +3485,13 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="E90" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F90">
         <v>13.4</v>
@@ -3496,13 +3505,13 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="E91" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F91">
         <v>13.4</v>
@@ -3516,13 +3525,13 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="E92" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F92">
         <v>13.4</v>
@@ -3536,13 +3545,13 @@
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>763</v>
       </c>
       <c r="E93" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F93">
         <v>13.4</v>
@@ -3556,13 +3565,13 @@
         <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="E94" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F94">
         <v>13.4</v>
@@ -3576,13 +3585,13 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D95">
-        <v>552</v>
+        <v>671</v>
       </c>
       <c r="E95" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F95">
         <v>13.4</v>
@@ -3596,13 +3605,13 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D96">
-        <v>968</v>
+        <v>529</v>
       </c>
       <c r="E96" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F96">
         <v>13.4</v>
@@ -3616,13 +3625,13 @@
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D97">
-        <v>919</v>
+        <v>841</v>
       </c>
       <c r="E97" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F97">
         <v>50.57</v>
@@ -3636,13 +3645,13 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="E98" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F98">
         <v>4.33</v>
@@ -3656,13 +3665,13 @@
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="E99" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F99">
         <v>4.33</v>
@@ -3676,13 +3685,13 @@
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="E100" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F100">
         <v>4.33</v>
@@ -3696,13 +3705,13 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F101">
         <v>7.2</v>
@@ -3716,13 +3725,13 @@
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F102">
         <v>7.2</v>
@@ -3736,13 +3745,13 @@
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F103">
         <v>7.2</v>
@@ -3756,13 +3765,13 @@
         <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D104">
-        <v>670</v>
+        <v>795</v>
       </c>
       <c r="E104" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F104">
         <v>111.82</v>
@@ -3776,13 +3785,13 @@
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D105">
-        <v>861</v>
+        <v>755</v>
       </c>
       <c r="E105" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F105">
         <v>4.13</v>
@@ -3796,13 +3805,13 @@
         <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D106">
-        <v>664</v>
+        <v>995</v>
       </c>
       <c r="E106" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F106">
         <v>4.13</v>
@@ -3816,13 +3825,13 @@
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D107">
-        <v>915</v>
+        <v>958</v>
       </c>
       <c r="E107" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F107">
         <v>4.13</v>
@@ -3836,13 +3845,13 @@
         <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F108">
         <v>8.34</v>
@@ -3856,13 +3865,13 @@
         <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F109">
         <v>8.34</v>
@@ -3876,13 +3885,13 @@
         <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F110">
         <v>8.34</v>
@@ -3896,13 +3905,13 @@
         <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F111">
         <v>8.34</v>
@@ -3916,13 +3925,13 @@
         <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D112">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F112">
         <v>132.19</v>
@@ -3936,13 +3945,13 @@
         <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="E113" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F113">
         <v>3.83</v>
@@ -3956,13 +3965,13 @@
         <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="E114" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F114">
         <v>3.83</v>
@@ -3976,13 +3985,13 @@
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="E115" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F115">
         <v>3.83</v>
@@ -3996,13 +4005,13 @@
         <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D116">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F116">
         <v>7.57</v>
@@ -4016,13 +4025,13 @@
         <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D117">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F117">
         <v>7.57</v>
@@ -4036,13 +4045,13 @@
         <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D118">
-        <v>747</v>
+        <v>560</v>
       </c>
       <c r="E118" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F118">
         <v>115.04</v>
@@ -4056,13 +4065,13 @@
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="E119" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F119">
         <v>11.3</v>
@@ -4076,13 +4085,13 @@
         <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="E120" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F120">
         <v>11.3</v>
@@ -4096,13 +4105,13 @@
         <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="E121" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F121">
         <v>11.3</v>
@@ -4116,13 +4125,13 @@
         <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E122" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F122">
         <v>11.3</v>
@@ -4136,13 +4145,13 @@
         <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="E123" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F123">
         <v>11.3</v>
@@ -4156,13 +4165,13 @@
         <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="E124" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F124">
         <v>11.3</v>
@@ -4176,13 +4185,13 @@
         <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="E125" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F125">
         <v>11.3</v>
@@ -4196,13 +4205,13 @@
         <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="E126" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F126">
         <v>11.3</v>
@@ -4216,13 +4225,13 @@
         <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="E127" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F127">
         <v>11.3</v>
@@ -4236,13 +4245,13 @@
         <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="E128" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F128">
         <v>7.81</v>
@@ -4256,13 +4265,13 @@
         <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="E129" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F129">
         <v>7.81</v>
@@ -4276,13 +4285,13 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="E130" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F130">
         <v>7.81</v>
@@ -4296,13 +4305,13 @@
         <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F131">
         <v>113.68</v>
@@ -4316,13 +4325,13 @@
         <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="E132" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F132">
         <v>8.119999999999999</v>
@@ -4336,13 +4345,13 @@
         <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="E133" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F133">
         <v>8.119999999999999</v>
@@ -4356,13 +4365,13 @@
         <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D134">
-        <v>556</v>
+        <v>728</v>
       </c>
       <c r="E134" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F134">
         <v>72.79000000000001</v>
@@ -4376,13 +4385,13 @@
         <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4393,13 +4402,13 @@
         <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F136">
         <v>6.31</v>
@@ -4413,13 +4422,13 @@
         <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F137">
         <v>6.56</v>
@@ -4433,13 +4442,13 @@
         <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F138">
         <v>6.31</v>
@@ -4453,13 +4462,13 @@
         <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F139">
         <v>6.31</v>
@@ -4473,13 +4482,13 @@
         <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="E140" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F140">
         <v>11.52</v>
@@ -4493,13 +4502,13 @@
         <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="E141" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F141">
         <v>11.52</v>
@@ -4513,13 +4522,13 @@
         <v>147</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="E142" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F142">
         <v>11.52</v>
@@ -4533,13 +4542,13 @@
         <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="E143" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F143">
         <v>11.52</v>
@@ -4553,13 +4562,13 @@
         <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="E144" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F144">
         <v>11.84</v>
@@ -4573,13 +4582,13 @@
         <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="E145" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F145">
         <v>11.84</v>
@@ -4593,13 +4602,13 @@
         <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="E146" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F146">
         <v>11.84</v>
@@ -4613,13 +4622,13 @@
         <v>152</v>
       </c>
       <c r="C147" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="E147" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F147">
         <v>11.84</v>
@@ -4633,13 +4642,13 @@
         <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="E148" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F148">
         <v>11.52</v>
@@ -4653,13 +4662,13 @@
         <v>154</v>
       </c>
       <c r="C149" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="E149" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F149">
         <v>11.52</v>
@@ -4673,13 +4682,13 @@
         <v>155</v>
       </c>
       <c r="C150" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="E150" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F150">
         <v>11.52</v>
@@ -4693,13 +4702,13 @@
         <v>156</v>
       </c>
       <c r="C151" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="E151" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F151">
         <v>11.52</v>
@@ -4713,13 +4722,13 @@
         <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D152">
-        <v>713</v>
+        <v>566</v>
       </c>
       <c r="E152" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F152">
         <v>12.32</v>
@@ -4733,13 +4742,13 @@
         <v>158</v>
       </c>
       <c r="C153" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D153">
-        <v>972</v>
+        <v>800</v>
       </c>
       <c r="E153" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F153">
         <v>12.32</v>
@@ -4753,13 +4762,13 @@
         <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D154">
-        <v>711</v>
+        <v>673</v>
       </c>
       <c r="E154" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F154">
         <v>12.32</v>
@@ -4773,13 +4782,13 @@
         <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D155">
-        <v>717</v>
+        <v>875</v>
       </c>
       <c r="E155" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F155">
         <v>12.32</v>
@@ -4793,13 +4802,13 @@
         <v>161</v>
       </c>
       <c r="C156" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="E156" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F156">
         <v>12.48</v>
@@ -4813,13 +4822,13 @@
         <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="E157" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F157">
         <v>12.48</v>
@@ -4833,13 +4842,13 @@
         <v>163</v>
       </c>
       <c r="C158" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="E158" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F158">
         <v>12.48</v>
@@ -4853,13 +4862,13 @@
         <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="E159" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F159">
         <v>12.48</v>
@@ -4873,13 +4882,13 @@
         <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="E160" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F160">
         <v>9.24</v>
@@ -4893,13 +4902,13 @@
         <v>166</v>
       </c>
       <c r="C161" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="E161" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F161">
         <v>9.24</v>
@@ -4913,13 +4922,13 @@
         <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D162">
-        <v>929</v>
+        <v>821</v>
       </c>
       <c r="E162" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F162">
         <v>9.32</v>
@@ -4933,13 +4942,13 @@
         <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D163">
-        <v>579</v>
+        <v>956</v>
       </c>
       <c r="E163" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F163">
         <v>9.32</v>
@@ -4953,13 +4962,13 @@
         <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D164">
-        <v>505</v>
+        <v>915</v>
       </c>
       <c r="E164" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F164">
         <v>9.32</v>
@@ -4973,13 +4982,13 @@
         <v>170</v>
       </c>
       <c r="C165" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="E165" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F165">
         <v>11.08</v>
@@ -4993,13 +5002,13 @@
         <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="E166" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F166">
         <v>11.84</v>
@@ -5013,16 +5022,16 @@
         <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="E167" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F167">
-        <v>11.08</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5033,16 +5042,16 @@
         <v>173</v>
       </c>
       <c r="C168" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="E168" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F168">
-        <v>15.42</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5056,13 +5065,13 @@
         <v>368</v>
       </c>
       <c r="D169">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="E169" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F169">
-        <v>97.59999999999999</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5076,13 +5085,13 @@
         <v>369</v>
       </c>
       <c r="D170">
-        <v>773</v>
+        <v>684</v>
       </c>
       <c r="E170" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F170">
-        <v>23.46</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5096,13 +5105,13 @@
         <v>370</v>
       </c>
       <c r="D171">
-        <v>551</v>
+        <v>639</v>
       </c>
       <c r="E171" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F171">
-        <v>104.54</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5116,13 +5125,13 @@
         <v>371</v>
       </c>
       <c r="D172">
-        <v>776</v>
+        <v>706</v>
       </c>
       <c r="E172" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F172">
-        <v>23.46</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5136,13 +5145,13 @@
         <v>372</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="E173" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F173">
-        <v>23.48</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5156,10 +5165,10 @@
         <v>373</v>
       </c>
       <c r="D174">
-        <v>521</v>
+        <v>822</v>
       </c>
       <c r="E174" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F174">
         <v>104.54</v>
@@ -5176,10 +5185,10 @@
         <v>374</v>
       </c>
       <c r="D175">
-        <v>932</v>
+        <v>765</v>
       </c>
       <c r="E175" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F175">
         <v>23.46</v>
@@ -5196,13 +5205,13 @@
         <v>375</v>
       </c>
       <c r="D176">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F176">
-        <v>25.98</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5216,13 +5225,13 @@
         <v>376</v>
       </c>
       <c r="D177">
-        <v>537</v>
+        <v>953</v>
       </c>
       <c r="E177" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F177">
-        <v>112.97</v>
+        <v>104.54</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5236,13 +5245,13 @@
         <v>377</v>
       </c>
       <c r="D178">
-        <v>585</v>
+        <v>891</v>
       </c>
       <c r="E178" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F178">
-        <v>25.98</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5256,13 +5265,13 @@
         <v>378</v>
       </c>
       <c r="D179">
-        <v>945</v>
+        <v>667</v>
       </c>
       <c r="E179" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F179">
-        <v>97.59999999999999</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5276,13 +5285,13 @@
         <v>379</v>
       </c>
       <c r="D180">
-        <v>907</v>
+        <v>664</v>
       </c>
       <c r="E180" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F180">
-        <v>23.46</v>
+        <v>112.97</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5296,13 +5305,13 @@
         <v>380</v>
       </c>
       <c r="D181">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="E181" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F181">
-        <v>24.92</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5316,13 +5325,13 @@
         <v>381</v>
       </c>
       <c r="D182">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="E182" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F182">
-        <v>71.34999999999999</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5336,13 +5345,13 @@
         <v>382</v>
       </c>
       <c r="D183">
-        <v>710</v>
+        <v>634</v>
       </c>
       <c r="E183" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F183">
-        <v>31.52</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5356,13 +5365,13 @@
         <v>383</v>
       </c>
       <c r="D184">
-        <v>853</v>
+        <v>816</v>
       </c>
       <c r="E184" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F184">
-        <v>59.35</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5376,13 +5385,13 @@
         <v>384</v>
       </c>
       <c r="D185">
-        <v>861</v>
+        <v>626</v>
       </c>
       <c r="E185" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F185">
-        <v>58.25</v>
+        <v>71.34999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5396,13 +5405,13 @@
         <v>385</v>
       </c>
       <c r="D186">
-        <v>991</v>
+        <v>574</v>
       </c>
       <c r="E186" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F186">
-        <v>152.88</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5416,13 +5425,13 @@
         <v>386</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="E187" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F187">
-        <v>58.25</v>
+        <v>59.35</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5436,13 +5445,13 @@
         <v>387</v>
       </c>
       <c r="D188">
-        <v>937</v>
+        <v>696</v>
       </c>
       <c r="E188" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F188">
-        <v>155.35</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5456,13 +5465,13 @@
         <v>388</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="E189" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F189">
-        <v>47.69</v>
+        <v>152.88</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5476,13 +5485,13 @@
         <v>389</v>
       </c>
       <c r="D190">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F190">
-        <v>3.92</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5493,16 +5502,16 @@
         <v>196</v>
       </c>
       <c r="C191" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D191">
-        <v>813</v>
+        <v>900</v>
       </c>
       <c r="E191" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F191">
-        <v>3.92</v>
+        <v>155.35</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5513,16 +5522,16 @@
         <v>197</v>
       </c>
       <c r="C192" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D192">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F192">
-        <v>3.92</v>
+        <v>47.69</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5533,13 +5542,13 @@
         <v>198</v>
       </c>
       <c r="C193" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D193">
-        <v>707</v>
+        <v>927</v>
       </c>
       <c r="E193" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F193">
         <v>3.92</v>
@@ -5553,16 +5562,16 @@
         <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="E194" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F194">
-        <v>91.06</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5573,16 +5582,16 @@
         <v>200</v>
       </c>
       <c r="C195" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D195">
-        <v>964</v>
+        <v>767</v>
       </c>
       <c r="E195" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F195">
-        <v>9.279999999999999</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5593,16 +5602,16 @@
         <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D196">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="E196" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F196">
-        <v>9.279999999999999</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5613,16 +5622,16 @@
         <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D197">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F197">
-        <v>9.279999999999999</v>
+        <v>91.06</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5633,16 +5642,16 @@
         <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D198">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E198" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F198">
-        <v>135.8</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5653,16 +5662,16 @@
         <v>204</v>
       </c>
       <c r="C199" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D199">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E199" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F199">
-        <v>12.47</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5673,16 +5682,16 @@
         <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D200">
-        <v>707</v>
+        <v>815</v>
       </c>
       <c r="E200" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F200">
-        <v>12.47</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5693,16 +5702,16 @@
         <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D201">
-        <v>877</v>
+        <v>926</v>
       </c>
       <c r="E201" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F201">
-        <v>12.47</v>
+        <v>135.8</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5713,16 +5722,16 @@
         <v>207</v>
       </c>
       <c r="C202" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="E202" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F202">
-        <v>152.08</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5733,16 +5742,16 @@
         <v>208</v>
       </c>
       <c r="C203" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="E203" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F203">
-        <v>6.52</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5753,16 +5762,16 @@
         <v>209</v>
       </c>
       <c r="C204" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="E204" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F204">
-        <v>6.52</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5773,16 +5782,16 @@
         <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="E205" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F205">
-        <v>10.58</v>
+        <v>152.08</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5793,16 +5802,16 @@
         <v>211</v>
       </c>
       <c r="C206" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F206">
-        <v>10.58</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5813,16 +5822,16 @@
         <v>212</v>
       </c>
       <c r="C207" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D207">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F207">
-        <v>145.88</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5833,16 +5842,16 @@
         <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D208">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F208">
-        <v>7.46</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5856,13 +5865,13 @@
         <v>399</v>
       </c>
       <c r="D209">
-        <v>863</v>
+        <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F209">
-        <v>9.960000000000001</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5873,16 +5882,16 @@
         <v>215</v>
       </c>
       <c r="C210" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D210">
-        <v>750</v>
+        <v>865</v>
       </c>
       <c r="E210" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F210">
-        <v>9.960000000000001</v>
+        <v>145.88</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5893,16 +5902,16 @@
         <v>216</v>
       </c>
       <c r="C211" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D211">
-        <v>618</v>
+        <v>793</v>
       </c>
       <c r="E211" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F211">
-        <v>9.960000000000001</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5913,13 +5922,13 @@
         <v>217</v>
       </c>
       <c r="C212" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D212">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F212">
         <v>9.960000000000001</v>
@@ -5933,16 +5942,16 @@
         <v>218</v>
       </c>
       <c r="C213" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D213">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F213">
-        <v>148.31</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5953,16 +5962,16 @@
         <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F214">
-        <v>10.26</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5973,16 +5982,16 @@
         <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F215">
-        <v>10.26</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5993,16 +6002,16 @@
         <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="E216" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F216">
-        <v>10.26</v>
+        <v>148.31</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6013,13 +6022,13 @@
         <v>222</v>
       </c>
       <c r="C217" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F217">
         <v>10.26</v>
@@ -6033,16 +6042,16 @@
         <v>223</v>
       </c>
       <c r="C218" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D218">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F218">
-        <v>135.78</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6053,16 +6062,16 @@
         <v>224</v>
       </c>
       <c r="C219" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D219">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F219">
-        <v>13.26</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6073,16 +6082,16 @@
         <v>225</v>
       </c>
       <c r="C220" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D220">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F220">
-        <v>13.26</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6093,16 +6102,16 @@
         <v>226</v>
       </c>
       <c r="C221" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D221">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="E221" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F221">
-        <v>13.26</v>
+        <v>135.78</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6113,13 +6122,13 @@
         <v>227</v>
       </c>
       <c r="C222" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D222">
-        <v>965</v>
+        <v>780</v>
       </c>
       <c r="E222" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F222">
         <v>13.26</v>
@@ -6133,16 +6142,16 @@
         <v>228</v>
       </c>
       <c r="C223" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="E223" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F223">
-        <v>136.76</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6153,16 +6162,16 @@
         <v>229</v>
       </c>
       <c r="C224" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D224">
-        <v>827</v>
+        <v>933</v>
       </c>
       <c r="E224" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F224">
-        <v>10.57</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6176,13 +6185,13 @@
         <v>406</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="E225" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F225">
-        <v>4.2</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6199,7 +6208,10 @@
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>436</v>
+        <v>439</v>
+      </c>
+      <c r="F226">
+        <v>136.76</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6213,10 +6225,13 @@
         <v>408</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="E227" t="s">
-        <v>436</v>
+        <v>439</v>
+      </c>
+      <c r="F227">
+        <v>10.57</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6233,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F228">
         <v>4.2</v>
@@ -6253,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6270,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6287,7 +6302,10 @@
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>436</v>
+        <v>439</v>
+      </c>
+      <c r="F231">
+        <v>4.2</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6304,10 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>436</v>
-      </c>
-      <c r="F232">
-        <v>4.2</v>
+        <v>439</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6324,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6341,10 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>436</v>
-      </c>
-      <c r="F234">
-        <v>4.2</v>
+        <v>439</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6358,13 +6370,13 @@
         <v>416</v>
       </c>
       <c r="D235">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F235">
-        <v>133.09</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6372,19 +6384,16 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C236" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D236">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>436</v>
-      </c>
-      <c r="F236">
-        <v>133.09</v>
+        <v>439</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6392,19 +6401,19 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C237" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D237">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F237">
-        <v>28.37</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6412,19 +6421,19 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C238" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D238">
-        <v>811</v>
+        <v>997</v>
       </c>
       <c r="E238" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F238">
-        <v>133.24</v>
+        <v>133.09</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6432,19 +6441,19 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D239">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F239">
-        <v>133.24</v>
+        <v>133.09</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6452,16 +6461,16 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C240" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D240">
-        <v>539</v>
+        <v>961</v>
       </c>
       <c r="E240" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F240">
         <v>28.37</v>
@@ -6472,19 +6481,19 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D241">
-        <v>792</v>
+        <v>925</v>
       </c>
       <c r="E241" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F241">
-        <v>138.89</v>
+        <v>133.24</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6492,19 +6501,19 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C242" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D242">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F242">
-        <v>138.89</v>
+        <v>133.24</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6512,16 +6521,16 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D243">
-        <v>774</v>
+        <v>962</v>
       </c>
       <c r="E243" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F243">
         <v>28.37</v>
@@ -6532,19 +6541,19 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C244" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D244">
-        <v>714</v>
+        <v>537</v>
       </c>
       <c r="E244" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F244">
-        <v>28.37</v>
+        <v>138.89</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6558,13 +6567,13 @@
         <v>423</v>
       </c>
       <c r="D245">
-        <v>791</v>
+        <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F245">
-        <v>33.36</v>
+        <v>138.89</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6578,13 +6587,13 @@
         <v>424</v>
       </c>
       <c r="D246">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E246" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F246">
-        <v>64.79000000000001</v>
+        <v>28.37</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6598,13 +6607,13 @@
         <v>425</v>
       </c>
       <c r="D247">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="E247" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F247">
-        <v>126.85</v>
+        <v>28.37</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6618,13 +6627,13 @@
         <v>426</v>
       </c>
       <c r="D248">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F248">
-        <v>64.51000000000001</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6638,13 +6647,13 @@
         <v>427</v>
       </c>
       <c r="D249">
-        <v>731</v>
+        <v>803</v>
       </c>
       <c r="E249" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F249">
-        <v>254.93</v>
+        <v>64.79000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6658,13 +6667,13 @@
         <v>428</v>
       </c>
       <c r="D250">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="E250" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F250">
-        <v>53.65</v>
+        <v>126.85</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6678,13 +6687,13 @@
         <v>429</v>
       </c>
       <c r="D251">
-        <v>649</v>
+        <v>750</v>
       </c>
       <c r="E251" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F251">
-        <v>115.79</v>
+        <v>64.51000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6698,13 +6707,13 @@
         <v>430</v>
       </c>
       <c r="D252">
-        <v>515</v>
+        <v>680</v>
       </c>
       <c r="E252" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F252">
-        <v>52.51</v>
+        <v>254.93</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6718,13 +6727,13 @@
         <v>431</v>
       </c>
       <c r="D253">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F253">
-        <v>111.47</v>
+        <v>53.65</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6738,13 +6747,13 @@
         <v>432</v>
       </c>
       <c r="D254">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F254">
-        <v>191.59</v>
+        <v>115.79</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6758,13 +6767,13 @@
         <v>433</v>
       </c>
       <c r="D255">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F255">
-        <v>183.95</v>
+        <v>52.51</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6778,13 +6787,13 @@
         <v>434</v>
       </c>
       <c r="D256">
-        <v>876</v>
+        <v>845</v>
       </c>
       <c r="E256" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F256">
-        <v>214.25</v>
+        <v>111.47</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6801,9 +6810,69 @@
         <v>0</v>
       </c>
       <c r="E257" t="s">
+        <v>439</v>
+      </c>
+      <c r="F257">
+        <v>191.59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>260</v>
+      </c>
+      <c r="C258" t="s">
         <v>436</v>
       </c>
-      <c r="F257">
+      <c r="D258">
+        <v>757</v>
+      </c>
+      <c r="E258" t="s">
+        <v>439</v>
+      </c>
+      <c r="F258">
+        <v>183.95</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" t="s">
+        <v>261</v>
+      </c>
+      <c r="C259" t="s">
+        <v>437</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>439</v>
+      </c>
+      <c r="F259">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>262</v>
+      </c>
+      <c r="C260" t="s">
+        <v>438</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>439</v>
+      </c>
+      <c r="F260">
         <v>53.65</v>
       </c>
     </row>

--- a/result/ТРБТ.xlsx
+++ b/result/ТРБТ.xlsx
@@ -1734,7 +1734,7 @@
         <v>264</v>
       </c>
       <c r="D2">
-        <v>994</v>
+        <v>506</v>
       </c>
       <c r="F2" t="s">
         <v>440</v>
@@ -1754,7 +1754,7 @@
         <v>265</v>
       </c>
       <c r="D3">
-        <v>618</v>
+        <v>849</v>
       </c>
       <c r="F3" t="s">
         <v>440</v>
@@ -1774,7 +1774,7 @@
         <v>266</v>
       </c>
       <c r="D4">
-        <v>813</v>
+        <v>709</v>
       </c>
       <c r="F4" t="s">
         <v>440</v>
@@ -1794,7 +1794,7 @@
         <v>267</v>
       </c>
       <c r="D5">
-        <v>536</v>
+        <v>687</v>
       </c>
       <c r="F5" t="s">
         <v>440</v>
@@ -1814,7 +1814,7 @@
         <v>268</v>
       </c>
       <c r="D6">
-        <v>943</v>
+        <v>707</v>
       </c>
       <c r="F6" t="s">
         <v>440</v>
@@ -1834,7 +1834,7 @@
         <v>269</v>
       </c>
       <c r="D7">
-        <v>576</v>
+        <v>800</v>
       </c>
       <c r="F7" t="s">
         <v>440</v>
@@ -1854,7 +1854,7 @@
         <v>270</v>
       </c>
       <c r="D8">
-        <v>563</v>
+        <v>703</v>
       </c>
       <c r="F8" t="s">
         <v>440</v>
@@ -1874,7 +1874,7 @@
         <v>271</v>
       </c>
       <c r="D9">
-        <v>927</v>
+        <v>664</v>
       </c>
       <c r="F9" t="s">
         <v>440</v>
@@ -1914,7 +1914,7 @@
         <v>273</v>
       </c>
       <c r="D11">
-        <v>725</v>
+        <v>562</v>
       </c>
       <c r="F11" t="s">
         <v>440</v>
@@ -1934,7 +1934,7 @@
         <v>274</v>
       </c>
       <c r="D12">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F12" t="s">
         <v>440</v>
@@ -1954,7 +1954,7 @@
         <v>275</v>
       </c>
       <c r="D13">
-        <v>584</v>
+        <v>961</v>
       </c>
       <c r="F13" t="s">
         <v>440</v>
@@ -1974,7 +1974,7 @@
         <v>276</v>
       </c>
       <c r="D14">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="F14" t="s">
         <v>440</v>
@@ -1994,7 +1994,7 @@
         <v>277</v>
       </c>
       <c r="D15">
-        <v>747</v>
+        <v>559</v>
       </c>
       <c r="F15" t="s">
         <v>440</v>
@@ -2014,7 +2014,7 @@
         <v>278</v>
       </c>
       <c r="D16">
-        <v>617</v>
+        <v>812</v>
       </c>
       <c r="F16" t="s">
         <v>440</v>
@@ -2034,7 +2034,7 @@
         <v>279</v>
       </c>
       <c r="D17">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="F17" t="s">
         <v>440</v>
@@ -2074,7 +2074,7 @@
         <v>281</v>
       </c>
       <c r="D19">
-        <v>559</v>
+        <v>935</v>
       </c>
       <c r="F19" t="s">
         <v>440</v>
@@ -2094,7 +2094,7 @@
         <v>282</v>
       </c>
       <c r="D20">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="F20" t="s">
         <v>440</v>
@@ -2114,7 +2114,7 @@
         <v>283</v>
       </c>
       <c r="D21">
-        <v>534</v>
+        <v>724</v>
       </c>
       <c r="F21" t="s">
         <v>440</v>
@@ -2134,7 +2134,7 @@
         <v>284</v>
       </c>
       <c r="D22">
-        <v>925</v>
+        <v>797</v>
       </c>
       <c r="F22" t="s">
         <v>440</v>
@@ -2154,7 +2154,7 @@
         <v>285</v>
       </c>
       <c r="D23">
-        <v>638</v>
+        <v>689</v>
       </c>
       <c r="F23" t="s">
         <v>440</v>
@@ -2194,7 +2194,7 @@
         <v>287</v>
       </c>
       <c r="D25">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="F25" t="s">
         <v>440</v>
@@ -2214,7 +2214,7 @@
         <v>288</v>
       </c>
       <c r="D26">
-        <v>821</v>
+        <v>772</v>
       </c>
       <c r="F26" t="s">
         <v>440</v>
@@ -2254,7 +2254,7 @@
         <v>290</v>
       </c>
       <c r="D28">
-        <v>579</v>
+        <v>779</v>
       </c>
       <c r="F28" t="s">
         <v>440</v>
@@ -2274,7 +2274,7 @@
         <v>291</v>
       </c>
       <c r="D29">
-        <v>768</v>
+        <v>888</v>
       </c>
       <c r="F29" t="s">
         <v>440</v>
@@ -2294,7 +2294,7 @@
         <v>292</v>
       </c>
       <c r="D30">
-        <v>857</v>
+        <v>688</v>
       </c>
       <c r="F30" t="s">
         <v>440</v>
@@ -2314,7 +2314,7 @@
         <v>293</v>
       </c>
       <c r="D31">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="F31" t="s">
         <v>440</v>
@@ -2334,7 +2334,7 @@
         <v>294</v>
       </c>
       <c r="D32">
-        <v>717</v>
+        <v>853</v>
       </c>
       <c r="F32" t="s">
         <v>440</v>
@@ -2354,7 +2354,7 @@
         <v>295</v>
       </c>
       <c r="D33">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="F33" t="s">
         <v>440</v>
@@ -2374,7 +2374,7 @@
         <v>296</v>
       </c>
       <c r="D34">
-        <v>555</v>
+        <v>517</v>
       </c>
       <c r="F34" t="s">
         <v>440</v>
@@ -2394,7 +2394,7 @@
         <v>297</v>
       </c>
       <c r="D35">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="F35" t="s">
         <v>440</v>
@@ -2474,7 +2474,7 @@
         <v>301</v>
       </c>
       <c r="D39">
-        <v>788</v>
+        <v>682</v>
       </c>
       <c r="F39" t="s">
         <v>440</v>
@@ -2574,7 +2574,7 @@
         <v>306</v>
       </c>
       <c r="D44">
-        <v>582</v>
+        <v>974</v>
       </c>
       <c r="F44" t="s">
         <v>440</v>
@@ -2634,7 +2634,7 @@
         <v>309</v>
       </c>
       <c r="D47">
-        <v>933</v>
+        <v>703</v>
       </c>
       <c r="F47" t="s">
         <v>440</v>
@@ -2694,7 +2694,7 @@
         <v>312</v>
       </c>
       <c r="D50">
-        <v>839</v>
+        <v>634</v>
       </c>
       <c r="F50" t="s">
         <v>440</v>
@@ -2734,7 +2734,7 @@
         <v>314</v>
       </c>
       <c r="D52">
-        <v>863</v>
+        <v>768</v>
       </c>
       <c r="F52" t="s">
         <v>440</v>
@@ -2754,7 +2754,7 @@
         <v>315</v>
       </c>
       <c r="D53">
-        <v>870</v>
+        <v>736</v>
       </c>
       <c r="F53" t="s">
         <v>440</v>
@@ -2774,7 +2774,7 @@
         <v>316</v>
       </c>
       <c r="D54">
-        <v>945</v>
+        <v>915</v>
       </c>
       <c r="F54" t="s">
         <v>440</v>
@@ -2814,7 +2814,7 @@
         <v>318</v>
       </c>
       <c r="D56">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="F56" t="s">
         <v>440</v>
@@ -2834,7 +2834,7 @@
         <v>319</v>
       </c>
       <c r="D57">
-        <v>551</v>
+        <v>793</v>
       </c>
       <c r="F57" t="s">
         <v>440</v>
@@ -2854,7 +2854,7 @@
         <v>320</v>
       </c>
       <c r="D58">
-        <v>546</v>
+        <v>918</v>
       </c>
       <c r="F58" t="s">
         <v>440</v>
@@ -2874,7 +2874,7 @@
         <v>321</v>
       </c>
       <c r="D59">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="F59" t="s">
         <v>440</v>
@@ -2894,7 +2894,7 @@
         <v>321</v>
       </c>
       <c r="D60">
-        <v>931</v>
+        <v>872</v>
       </c>
       <c r="F60" t="s">
         <v>440</v>
@@ -2914,7 +2914,7 @@
         <v>322</v>
       </c>
       <c r="D61">
-        <v>873</v>
+        <v>512</v>
       </c>
       <c r="F61" t="s">
         <v>440</v>
@@ -2934,7 +2934,7 @@
         <v>323</v>
       </c>
       <c r="D62">
-        <v>827</v>
+        <v>897</v>
       </c>
       <c r="F62" t="s">
         <v>440</v>
@@ -2954,7 +2954,7 @@
         <v>323</v>
       </c>
       <c r="D63">
-        <v>622</v>
+        <v>839</v>
       </c>
       <c r="F63" t="s">
         <v>440</v>
@@ -2974,7 +2974,7 @@
         <v>324</v>
       </c>
       <c r="D64">
-        <v>951</v>
+        <v>562</v>
       </c>
       <c r="F64" t="s">
         <v>440</v>
@@ -3094,7 +3094,7 @@
         <v>326</v>
       </c>
       <c r="D70">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="F70" t="s">
         <v>440</v>
@@ -3114,7 +3114,7 @@
         <v>327</v>
       </c>
       <c r="D71">
-        <v>963</v>
+        <v>847</v>
       </c>
       <c r="F71" t="s">
         <v>440</v>
@@ -3134,7 +3134,7 @@
         <v>328</v>
       </c>
       <c r="D72">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="F72" t="s">
         <v>440</v>
@@ -3154,7 +3154,7 @@
         <v>329</v>
       </c>
       <c r="D73">
-        <v>886</v>
+        <v>668</v>
       </c>
       <c r="F73" t="s">
         <v>440</v>
@@ -3174,7 +3174,7 @@
         <v>329</v>
       </c>
       <c r="D74">
-        <v>527</v>
+        <v>649</v>
       </c>
       <c r="F74" t="s">
         <v>440</v>
@@ -3194,7 +3194,7 @@
         <v>329</v>
       </c>
       <c r="D75">
-        <v>664</v>
+        <v>995</v>
       </c>
       <c r="F75" t="s">
         <v>440</v>
@@ -3214,7 +3214,7 @@
         <v>329</v>
       </c>
       <c r="D76">
-        <v>957</v>
+        <v>1000</v>
       </c>
       <c r="F76" t="s">
         <v>440</v>
@@ -3234,7 +3234,7 @@
         <v>329</v>
       </c>
       <c r="D77">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="F77" t="s">
         <v>440</v>
@@ -3254,7 +3254,7 @@
         <v>330</v>
       </c>
       <c r="D78">
-        <v>698</v>
+        <v>949</v>
       </c>
       <c r="F78" t="s">
         <v>440</v>
@@ -3274,7 +3274,7 @@
         <v>331</v>
       </c>
       <c r="D79">
-        <v>616</v>
+        <v>790</v>
       </c>
       <c r="F79" t="s">
         <v>440</v>
@@ -3294,7 +3294,7 @@
         <v>332</v>
       </c>
       <c r="D80">
-        <v>587</v>
+        <v>863</v>
       </c>
       <c r="F80" t="s">
         <v>440</v>
@@ -3314,7 +3314,7 @@
         <v>332</v>
       </c>
       <c r="D81">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="F81" t="s">
         <v>440</v>
@@ -3334,7 +3334,7 @@
         <v>332</v>
       </c>
       <c r="D82">
-        <v>910</v>
+        <v>532</v>
       </c>
       <c r="F82" t="s">
         <v>440</v>
@@ -3354,7 +3354,7 @@
         <v>332</v>
       </c>
       <c r="D83">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="F83" t="s">
         <v>440</v>
@@ -3374,7 +3374,7 @@
         <v>332</v>
       </c>
       <c r="D84">
-        <v>937</v>
+        <v>978</v>
       </c>
       <c r="F84" t="s">
         <v>440</v>
@@ -3394,7 +3394,7 @@
         <v>333</v>
       </c>
       <c r="D85">
-        <v>579</v>
+        <v>943</v>
       </c>
       <c r="F85" t="s">
         <v>440</v>
@@ -3414,7 +3414,7 @@
         <v>334</v>
       </c>
       <c r="D86">
-        <v>636</v>
+        <v>747</v>
       </c>
       <c r="F86" t="s">
         <v>440</v>
@@ -3434,7 +3434,7 @@
         <v>335</v>
       </c>
       <c r="D87">
-        <v>775</v>
+        <v>871</v>
       </c>
       <c r="F87" t="s">
         <v>440</v>
@@ -3454,7 +3454,7 @@
         <v>336</v>
       </c>
       <c r="D88">
-        <v>918</v>
+        <v>630</v>
       </c>
       <c r="F88" t="s">
         <v>440</v>
@@ -3474,7 +3474,7 @@
         <v>336</v>
       </c>
       <c r="D89">
-        <v>649</v>
+        <v>588</v>
       </c>
       <c r="F89" t="s">
         <v>440</v>
@@ -3494,7 +3494,7 @@
         <v>337</v>
       </c>
       <c r="D90">
-        <v>775</v>
+        <v>881</v>
       </c>
       <c r="F90" t="s">
         <v>440</v>
@@ -3514,7 +3514,7 @@
         <v>337</v>
       </c>
       <c r="D91">
-        <v>853</v>
+        <v>721</v>
       </c>
       <c r="F91" t="s">
         <v>440</v>
@@ -3534,7 +3534,7 @@
         <v>337</v>
       </c>
       <c r="D92">
-        <v>958</v>
+        <v>534</v>
       </c>
       <c r="F92" t="s">
         <v>440</v>
@@ -3554,7 +3554,7 @@
         <v>337</v>
       </c>
       <c r="D93">
-        <v>744</v>
+        <v>644</v>
       </c>
       <c r="F93" t="s">
         <v>440</v>
@@ -3574,7 +3574,7 @@
         <v>337</v>
       </c>
       <c r="D94">
-        <v>710</v>
+        <v>654</v>
       </c>
       <c r="F94" t="s">
         <v>440</v>
@@ -3594,7 +3594,7 @@
         <v>338</v>
       </c>
       <c r="D95">
-        <v>578</v>
+        <v>820</v>
       </c>
       <c r="F95" t="s">
         <v>440</v>
@@ -3634,7 +3634,7 @@
         <v>340</v>
       </c>
       <c r="D97">
-        <v>756</v>
+        <v>671</v>
       </c>
       <c r="F97" t="s">
         <v>440</v>
@@ -3654,7 +3654,7 @@
         <v>341</v>
       </c>
       <c r="D98">
-        <v>865</v>
+        <v>766</v>
       </c>
       <c r="F98" t="s">
         <v>440</v>
@@ -3674,7 +3674,7 @@
         <v>341</v>
       </c>
       <c r="D99">
-        <v>689</v>
+        <v>594</v>
       </c>
       <c r="F99" t="s">
         <v>440</v>
@@ -3694,7 +3694,7 @@
         <v>341</v>
       </c>
       <c r="D100">
-        <v>576</v>
+        <v>744</v>
       </c>
       <c r="F100" t="s">
         <v>440</v>
@@ -3774,7 +3774,7 @@
         <v>343</v>
       </c>
       <c r="D104">
-        <v>593</v>
+        <v>819</v>
       </c>
       <c r="F104" t="s">
         <v>440</v>
@@ -3794,7 +3794,7 @@
         <v>344</v>
       </c>
       <c r="D105">
-        <v>696</v>
+        <v>791</v>
       </c>
       <c r="F105" t="s">
         <v>440</v>
@@ -3814,7 +3814,7 @@
         <v>344</v>
       </c>
       <c r="D106">
-        <v>898</v>
+        <v>620</v>
       </c>
       <c r="F106" t="s">
         <v>440</v>
@@ -3834,7 +3834,7 @@
         <v>344</v>
       </c>
       <c r="D107">
-        <v>771</v>
+        <v>723</v>
       </c>
       <c r="F107" t="s">
         <v>440</v>
@@ -3954,7 +3954,7 @@
         <v>347</v>
       </c>
       <c r="D113">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="F113" t="s">
         <v>440</v>
@@ -3974,7 +3974,7 @@
         <v>347</v>
       </c>
       <c r="D114">
-        <v>676</v>
+        <v>815</v>
       </c>
       <c r="F114" t="s">
         <v>440</v>
@@ -3994,7 +3994,7 @@
         <v>347</v>
       </c>
       <c r="D115">
-        <v>957</v>
+        <v>783</v>
       </c>
       <c r="F115" t="s">
         <v>440</v>
@@ -4054,7 +4054,7 @@
         <v>349</v>
       </c>
       <c r="D118">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="F118" t="s">
         <v>440</v>
@@ -4074,7 +4074,7 @@
         <v>350</v>
       </c>
       <c r="D119">
-        <v>599</v>
+        <v>798</v>
       </c>
       <c r="F119" t="s">
         <v>440</v>
@@ -4094,7 +4094,7 @@
         <v>350</v>
       </c>
       <c r="D120">
-        <v>738</v>
+        <v>604</v>
       </c>
       <c r="F120" t="s">
         <v>440</v>
@@ -4114,7 +4114,7 @@
         <v>350</v>
       </c>
       <c r="D121">
-        <v>515</v>
+        <v>730</v>
       </c>
       <c r="F121" t="s">
         <v>440</v>
@@ -4134,7 +4134,7 @@
         <v>350</v>
       </c>
       <c r="D122">
-        <v>677</v>
+        <v>845</v>
       </c>
       <c r="F122" t="s">
         <v>440</v>
@@ -4154,7 +4154,7 @@
         <v>351</v>
       </c>
       <c r="D123">
-        <v>853</v>
+        <v>988</v>
       </c>
       <c r="F123" t="s">
         <v>440</v>
@@ -4174,7 +4174,7 @@
         <v>351</v>
       </c>
       <c r="D124">
-        <v>948</v>
+        <v>582</v>
       </c>
       <c r="F124" t="s">
         <v>440</v>
@@ -4194,7 +4194,7 @@
         <v>351</v>
       </c>
       <c r="D125">
-        <v>998</v>
+        <v>718</v>
       </c>
       <c r="F125" t="s">
         <v>440</v>
@@ -4214,7 +4214,7 @@
         <v>351</v>
       </c>
       <c r="D126">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="F126" t="s">
         <v>440</v>
@@ -4234,7 +4234,7 @@
         <v>351</v>
       </c>
       <c r="D127">
-        <v>829</v>
+        <v>945</v>
       </c>
       <c r="F127" t="s">
         <v>440</v>
@@ -4254,7 +4254,7 @@
         <v>352</v>
       </c>
       <c r="D128">
-        <v>952</v>
+        <v>731</v>
       </c>
       <c r="F128" t="s">
         <v>440</v>
@@ -4274,7 +4274,7 @@
         <v>352</v>
       </c>
       <c r="D129">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="F129" t="s">
         <v>440</v>
@@ -4294,7 +4294,7 @@
         <v>352</v>
       </c>
       <c r="D130">
-        <v>925</v>
+        <v>654</v>
       </c>
       <c r="F130" t="s">
         <v>440</v>
@@ -4334,7 +4334,7 @@
         <v>354</v>
       </c>
       <c r="D132">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="F132" t="s">
         <v>440</v>
@@ -4354,7 +4354,7 @@
         <v>354</v>
       </c>
       <c r="D133">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="F133" t="s">
         <v>440</v>
@@ -4374,7 +4374,7 @@
         <v>355</v>
       </c>
       <c r="D134">
-        <v>501</v>
+        <v>899</v>
       </c>
       <c r="F134" t="s">
         <v>440</v>
@@ -4491,7 +4491,7 @@
         <v>361</v>
       </c>
       <c r="D140">
-        <v>603</v>
+        <v>769</v>
       </c>
       <c r="F140" t="s">
         <v>440</v>
@@ -4511,7 +4511,7 @@
         <v>361</v>
       </c>
       <c r="D141">
-        <v>687</v>
+        <v>636</v>
       </c>
       <c r="F141" t="s">
         <v>440</v>
@@ -4531,7 +4531,7 @@
         <v>361</v>
       </c>
       <c r="D142">
-        <v>945</v>
+        <v>545</v>
       </c>
       <c r="F142" t="s">
         <v>440</v>
@@ -4551,7 +4551,7 @@
         <v>361</v>
       </c>
       <c r="D143">
-        <v>837</v>
+        <v>973</v>
       </c>
       <c r="F143" t="s">
         <v>440</v>
@@ -4571,7 +4571,7 @@
         <v>362</v>
       </c>
       <c r="D144">
-        <v>917</v>
+        <v>533</v>
       </c>
       <c r="F144" t="s">
         <v>440</v>
@@ -4591,7 +4591,7 @@
         <v>362</v>
       </c>
       <c r="D145">
-        <v>815</v>
+        <v>902</v>
       </c>
       <c r="F145" t="s">
         <v>440</v>
@@ -4611,7 +4611,7 @@
         <v>362</v>
       </c>
       <c r="D146">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F146" t="s">
         <v>440</v>
@@ -4631,7 +4631,7 @@
         <v>362</v>
       </c>
       <c r="D147">
-        <v>908</v>
+        <v>795</v>
       </c>
       <c r="F147" t="s">
         <v>440</v>
@@ -4651,7 +4651,7 @@
         <v>363</v>
       </c>
       <c r="D148">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="F148" t="s">
         <v>440</v>
@@ -4671,7 +4671,7 @@
         <v>363</v>
       </c>
       <c r="D149">
-        <v>873</v>
+        <v>769</v>
       </c>
       <c r="F149" t="s">
         <v>440</v>
@@ -4691,7 +4691,7 @@
         <v>363</v>
       </c>
       <c r="D150">
-        <v>923</v>
+        <v>681</v>
       </c>
       <c r="F150" t="s">
         <v>440</v>
@@ -4711,7 +4711,7 @@
         <v>363</v>
       </c>
       <c r="D151">
-        <v>722</v>
+        <v>597</v>
       </c>
       <c r="F151" t="s">
         <v>440</v>
@@ -4731,7 +4731,7 @@
         <v>364</v>
       </c>
       <c r="D152">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="F152" t="s">
         <v>440</v>
@@ -4751,7 +4751,7 @@
         <v>364</v>
       </c>
       <c r="D153">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="F153" t="s">
         <v>440</v>
@@ -4771,7 +4771,7 @@
         <v>364</v>
       </c>
       <c r="D154">
-        <v>604</v>
+        <v>810</v>
       </c>
       <c r="F154" t="s">
         <v>440</v>
@@ -4791,7 +4791,7 @@
         <v>364</v>
       </c>
       <c r="D155">
-        <v>979</v>
+        <v>637</v>
       </c>
       <c r="F155" t="s">
         <v>440</v>
@@ -4811,7 +4811,7 @@
         <v>365</v>
       </c>
       <c r="D156">
-        <v>687</v>
+        <v>962</v>
       </c>
       <c r="F156" t="s">
         <v>440</v>
@@ -4831,7 +4831,7 @@
         <v>365</v>
       </c>
       <c r="D157">
-        <v>514</v>
+        <v>648</v>
       </c>
       <c r="F157" t="s">
         <v>440</v>
@@ -4851,7 +4851,7 @@
         <v>365</v>
       </c>
       <c r="D158">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="F158" t="s">
         <v>440</v>
@@ -4871,7 +4871,7 @@
         <v>365</v>
       </c>
       <c r="D159">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="F159" t="s">
         <v>440</v>
@@ -4891,7 +4891,7 @@
         <v>366</v>
       </c>
       <c r="D160">
-        <v>773</v>
+        <v>538</v>
       </c>
       <c r="F160" t="s">
         <v>440</v>
@@ -4911,7 +4911,7 @@
         <v>366</v>
       </c>
       <c r="D161">
-        <v>696</v>
+        <v>593</v>
       </c>
       <c r="F161" t="s">
         <v>440</v>
@@ -4931,7 +4931,7 @@
         <v>367</v>
       </c>
       <c r="D162">
-        <v>925</v>
+        <v>882</v>
       </c>
       <c r="F162" t="s">
         <v>440</v>
@@ -4951,7 +4951,7 @@
         <v>367</v>
       </c>
       <c r="D163">
-        <v>614</v>
+        <v>680</v>
       </c>
       <c r="F163" t="s">
         <v>440</v>
@@ -4971,7 +4971,7 @@
         <v>367</v>
       </c>
       <c r="D164">
-        <v>624</v>
+        <v>923</v>
       </c>
       <c r="F164" t="s">
         <v>440</v>
@@ -4991,7 +4991,7 @@
         <v>368</v>
       </c>
       <c r="D165">
-        <v>618</v>
+        <v>971</v>
       </c>
       <c r="F165" t="s">
         <v>440</v>
@@ -5011,7 +5011,7 @@
         <v>369</v>
       </c>
       <c r="D166">
-        <v>951</v>
+        <v>608</v>
       </c>
       <c r="F166" t="s">
         <v>440</v>
@@ -5031,7 +5031,7 @@
         <v>369</v>
       </c>
       <c r="D167">
-        <v>625</v>
+        <v>771</v>
       </c>
       <c r="F167" t="s">
         <v>440</v>
@@ -5051,7 +5051,7 @@
         <v>369</v>
       </c>
       <c r="D168">
-        <v>914</v>
+        <v>789</v>
       </c>
       <c r="F168" t="s">
         <v>440</v>
@@ -5071,7 +5071,7 @@
         <v>369</v>
       </c>
       <c r="D169">
-        <v>857</v>
+        <v>702</v>
       </c>
       <c r="F169" t="s">
         <v>440</v>
@@ -5091,7 +5091,7 @@
         <v>370</v>
       </c>
       <c r="D170">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F170" t="s">
         <v>440</v>
@@ -5111,7 +5111,7 @@
         <v>371</v>
       </c>
       <c r="D171">
-        <v>539</v>
+        <v>715</v>
       </c>
       <c r="F171" t="s">
         <v>440</v>
@@ -5131,7 +5131,7 @@
         <v>372</v>
       </c>
       <c r="D172">
-        <v>574</v>
+        <v>678</v>
       </c>
       <c r="F172" t="s">
         <v>440</v>
@@ -5151,7 +5151,7 @@
         <v>373</v>
       </c>
       <c r="D173">
-        <v>540</v>
+        <v>819</v>
       </c>
       <c r="F173" t="s">
         <v>440</v>
@@ -5171,7 +5171,7 @@
         <v>374</v>
       </c>
       <c r="D174">
-        <v>913</v>
+        <v>778</v>
       </c>
       <c r="F174" t="s">
         <v>440</v>
@@ -5191,7 +5191,7 @@
         <v>375</v>
       </c>
       <c r="D175">
-        <v>937</v>
+        <v>662</v>
       </c>
       <c r="F175" t="s">
         <v>440</v>
@@ -5231,7 +5231,7 @@
         <v>377</v>
       </c>
       <c r="D177">
-        <v>884</v>
+        <v>855</v>
       </c>
       <c r="F177" t="s">
         <v>440</v>
@@ -5251,7 +5251,7 @@
         <v>378</v>
       </c>
       <c r="D178">
-        <v>573</v>
+        <v>747</v>
       </c>
       <c r="F178" t="s">
         <v>440</v>
@@ -5271,7 +5271,7 @@
         <v>379</v>
       </c>
       <c r="D179">
-        <v>646</v>
+        <v>612</v>
       </c>
       <c r="F179" t="s">
         <v>440</v>
@@ -5291,7 +5291,7 @@
         <v>380</v>
       </c>
       <c r="D180">
-        <v>581</v>
+        <v>796</v>
       </c>
       <c r="F180" t="s">
         <v>440</v>
@@ -5311,7 +5311,7 @@
         <v>381</v>
       </c>
       <c r="D181">
-        <v>592</v>
+        <v>699</v>
       </c>
       <c r="F181" t="s">
         <v>440</v>
@@ -5331,7 +5331,7 @@
         <v>382</v>
       </c>
       <c r="D182">
-        <v>667</v>
+        <v>626</v>
       </c>
       <c r="F182" t="s">
         <v>440</v>
@@ -5351,7 +5351,7 @@
         <v>383</v>
       </c>
       <c r="D183">
-        <v>576</v>
+        <v>790</v>
       </c>
       <c r="F183" t="s">
         <v>440</v>
@@ -5371,7 +5371,7 @@
         <v>384</v>
       </c>
       <c r="D184">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F184" t="s">
         <v>440</v>
@@ -5391,7 +5391,7 @@
         <v>385</v>
       </c>
       <c r="D185">
-        <v>892</v>
+        <v>924</v>
       </c>
       <c r="F185" t="s">
         <v>440</v>
@@ -5411,7 +5411,7 @@
         <v>386</v>
       </c>
       <c r="D186">
-        <v>504</v>
+        <v>736</v>
       </c>
       <c r="F186" t="s">
         <v>440</v>
@@ -5431,7 +5431,7 @@
         <v>387</v>
       </c>
       <c r="D187">
-        <v>762</v>
+        <v>666</v>
       </c>
       <c r="F187" t="s">
         <v>440</v>
@@ -5451,7 +5451,7 @@
         <v>388</v>
       </c>
       <c r="D188">
-        <v>669</v>
+        <v>535</v>
       </c>
       <c r="F188" t="s">
         <v>440</v>
@@ -5471,7 +5471,7 @@
         <v>389</v>
       </c>
       <c r="D189">
-        <v>960</v>
+        <v>785</v>
       </c>
       <c r="F189" t="s">
         <v>440</v>
@@ -5511,7 +5511,7 @@
         <v>391</v>
       </c>
       <c r="D191">
-        <v>938</v>
+        <v>663</v>
       </c>
       <c r="F191" t="s">
         <v>440</v>
@@ -5551,7 +5551,7 @@
         <v>393</v>
       </c>
       <c r="D193">
-        <v>771</v>
+        <v>724</v>
       </c>
       <c r="F193" t="s">
         <v>440</v>
@@ -5571,7 +5571,7 @@
         <v>393</v>
       </c>
       <c r="D194">
-        <v>847</v>
+        <v>608</v>
       </c>
       <c r="F194" t="s">
         <v>440</v>
@@ -5591,7 +5591,7 @@
         <v>393</v>
       </c>
       <c r="D195">
-        <v>951</v>
+        <v>627</v>
       </c>
       <c r="F195" t="s">
         <v>440</v>
@@ -5611,7 +5611,7 @@
         <v>393</v>
       </c>
       <c r="D196">
-        <v>812</v>
+        <v>676</v>
       </c>
       <c r="F196" t="s">
         <v>440</v>
@@ -5651,7 +5651,7 @@
         <v>395</v>
       </c>
       <c r="D198">
-        <v>889</v>
+        <v>555</v>
       </c>
       <c r="F198" t="s">
         <v>440</v>
@@ -5671,7 +5671,7 @@
         <v>395</v>
       </c>
       <c r="D199">
-        <v>820</v>
+        <v>904</v>
       </c>
       <c r="F199" t="s">
         <v>440</v>
@@ -5691,7 +5691,7 @@
         <v>395</v>
       </c>
       <c r="D200">
-        <v>988</v>
+        <v>802</v>
       </c>
       <c r="F200" t="s">
         <v>440</v>
@@ -5711,7 +5711,7 @@
         <v>396</v>
       </c>
       <c r="D201">
-        <v>680</v>
+        <v>826</v>
       </c>
       <c r="F201" t="s">
         <v>440</v>
@@ -5731,7 +5731,7 @@
         <v>397</v>
       </c>
       <c r="D202">
-        <v>793</v>
+        <v>975</v>
       </c>
       <c r="F202" t="s">
         <v>440</v>
@@ -5751,7 +5751,7 @@
         <v>397</v>
       </c>
       <c r="D203">
-        <v>705</v>
+        <v>600</v>
       </c>
       <c r="F203" t="s">
         <v>440</v>
@@ -5771,7 +5771,7 @@
         <v>397</v>
       </c>
       <c r="D204">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="F204" t="s">
         <v>440</v>
@@ -5791,7 +5791,7 @@
         <v>398</v>
       </c>
       <c r="D205">
-        <v>673</v>
+        <v>783</v>
       </c>
       <c r="F205" t="s">
         <v>440</v>
@@ -5891,7 +5891,7 @@
         <v>401</v>
       </c>
       <c r="D210">
-        <v>535</v>
+        <v>895</v>
       </c>
       <c r="F210" t="s">
         <v>440</v>
@@ -5911,7 +5911,7 @@
         <v>402</v>
       </c>
       <c r="D211">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="F211" t="s">
         <v>440</v>
@@ -6011,7 +6011,7 @@
         <v>404</v>
       </c>
       <c r="D216">
-        <v>580</v>
+        <v>759</v>
       </c>
       <c r="F216" t="s">
         <v>440</v>
@@ -6111,7 +6111,7 @@
         <v>406</v>
       </c>
       <c r="D221">
-        <v>852</v>
+        <v>592</v>
       </c>
       <c r="F221" t="s">
         <v>440</v>
@@ -6131,7 +6131,7 @@
         <v>407</v>
       </c>
       <c r="D222">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="F222" t="s">
         <v>440</v>
@@ -6151,7 +6151,7 @@
         <v>407</v>
       </c>
       <c r="D223">
-        <v>695</v>
+        <v>978</v>
       </c>
       <c r="F223" t="s">
         <v>440</v>
@@ -6171,7 +6171,7 @@
         <v>407</v>
       </c>
       <c r="D224">
-        <v>654</v>
+        <v>534</v>
       </c>
       <c r="F224" t="s">
         <v>440</v>
@@ -6191,7 +6191,7 @@
         <v>407</v>
       </c>
       <c r="D225">
-        <v>872</v>
+        <v>606</v>
       </c>
       <c r="F225" t="s">
         <v>440</v>
@@ -6231,7 +6231,7 @@
         <v>409</v>
       </c>
       <c r="D227">
-        <v>581</v>
+        <v>842</v>
       </c>
       <c r="F227" t="s">
         <v>440</v>
@@ -6433,7 +6433,7 @@
         <v>420</v>
       </c>
       <c r="D238">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="F238" t="s">
         <v>440</v>
@@ -6473,7 +6473,7 @@
         <v>421</v>
       </c>
       <c r="D240">
-        <v>909</v>
+        <v>614</v>
       </c>
       <c r="F240" t="s">
         <v>440</v>
@@ -6493,7 +6493,7 @@
         <v>422</v>
       </c>
       <c r="D241">
-        <v>893</v>
+        <v>694</v>
       </c>
       <c r="F241" t="s">
         <v>440</v>
@@ -6533,7 +6533,7 @@
         <v>423</v>
       </c>
       <c r="D243">
-        <v>688</v>
+        <v>941</v>
       </c>
       <c r="F243" t="s">
         <v>440</v>
@@ -6553,7 +6553,7 @@
         <v>424</v>
       </c>
       <c r="D244">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="F244" t="s">
         <v>440</v>
@@ -6593,7 +6593,7 @@
         <v>425</v>
       </c>
       <c r="D246">
-        <v>818</v>
+        <v>759</v>
       </c>
       <c r="F246" t="s">
         <v>440</v>
@@ -6613,7 +6613,7 @@
         <v>426</v>
       </c>
       <c r="D247">
-        <v>636</v>
+        <v>916</v>
       </c>
       <c r="F247" t="s">
         <v>440</v>
@@ -6653,7 +6653,7 @@
         <v>428</v>
       </c>
       <c r="D249">
-        <v>955</v>
+        <v>542</v>
       </c>
       <c r="F249" t="s">
         <v>440</v>
@@ -6673,7 +6673,7 @@
         <v>429</v>
       </c>
       <c r="D250">
-        <v>982</v>
+        <v>764</v>
       </c>
       <c r="F250" t="s">
         <v>440</v>
@@ -6693,7 +6693,7 @@
         <v>430</v>
       </c>
       <c r="D251">
-        <v>683</v>
+        <v>970</v>
       </c>
       <c r="F251" t="s">
         <v>440</v>
@@ -6713,7 +6713,7 @@
         <v>431</v>
       </c>
       <c r="D252">
-        <v>969</v>
+        <v>823</v>
       </c>
       <c r="F252" t="s">
         <v>440</v>
@@ -6793,7 +6793,7 @@
         <v>435</v>
       </c>
       <c r="D256">
-        <v>841</v>
+        <v>701</v>
       </c>
       <c r="F256" t="s">
         <v>440</v>
@@ -6833,7 +6833,7 @@
         <v>437</v>
       </c>
       <c r="D258">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="F258" t="s">
         <v>440</v>
